--- a/table.xlsx
+++ b/table.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="225">
   <si>
     <t>Alan Carlos Junior Rossetto</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Gerson Geraldo H Cavalheiro</t>
   </si>
   <si>
-    <t>Guilherme Ribeiro Corrêa</t>
-  </si>
-  <si>
     <t>Guilherme Netto</t>
   </si>
   <si>
@@ -142,39 +139,36 @@
     <t xml:space="preserve">VIII Semana Integrada de Inovação, Ensino, Pesquisa e Extensão - Encontro de Saberes: Pluriversidade e Meio Ambiente </t>
   </si>
   <si>
+    <t>Escalada e Montanhismo para a comunidade</t>
+  </si>
+  <si>
+    <t>REDELAB_Rede de Laboratórios e Coletivos de Arquitetura, Urbanismo, Design e Tecnologia da UFPel integrados no combate ao COVID_19</t>
+  </si>
+  <si>
+    <t>Centro de Inovação em Inteligência Artificial - Fase 1</t>
+  </si>
+  <si>
+    <t>Hut8 - Empresa Junior de Computação</t>
+  </si>
+  <si>
+    <t>Biotecnologia invade a escola e Mural G Biotec  em tempos de distanciamento</t>
+  </si>
+  <si>
+    <t>Casa da Música da Cidade</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Tecnologias de Robótica Móvel para Veículos Elétricos Autônomos e Robôs de Serviço</t>
+  </si>
+  <si>
+    <t>Reurbanismo colaborativo: revitalização da área degradada do campus Anglo pela disposição de resíduos da construção civil</t>
+  </si>
+  <si>
+    <t>Universidade Aberta Para Idosos - UNAPI</t>
+  </si>
+  <si>
     <t>PROJETO PARA IMPLANTAÇÃO DO "CENTRO CULTURAL ESTAÇÃO FERROVIÁRIA"</t>
   </si>
   <si>
-    <t>Inserção acadêmica na produção, divulgação e comunicação de livros e produtos com a marca Linha UFPel</t>
-  </si>
-  <si>
-    <t>Escalada e Montanhismo para a comunidade</t>
-  </si>
-  <si>
-    <t>REDELAB_Rede de Laboratórios e Coletivos de Arquitetura, Urbanismo, Design e Tecnologia da UFPel integrados no combate ao COVID_19</t>
-  </si>
-  <si>
-    <t>Centro de Inovação em Inteligência Artificial - Fase 1</t>
-  </si>
-  <si>
-    <t>Hut8 - Empresa Junior de Computação</t>
-  </si>
-  <si>
-    <t>Biotecnologia invade a escola e Mural G Biotec  em tempos de distanciamento</t>
-  </si>
-  <si>
-    <t>Casa da Música da Cidade</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de Tecnologias de Robótica Móvel para Veículos Elétricos Autônomos e Robôs de Serviço</t>
-  </si>
-  <si>
-    <t>Reurbanismo colaborativo: revitalização da área degradada do campus Anglo pela disposição de resíduos da construção civil</t>
-  </si>
-  <si>
-    <t>Universidade Aberta Para Idosos - UNAPI</t>
-  </si>
-  <si>
     <t>Desenvolvimento de metodologias e de ferramentas de simulação elétrica para caracterização da confiabilidade de circuitos integrados</t>
   </si>
   <si>
@@ -217,15 +211,12 @@
     <t>Exploração de Computação Aproximada e Armazenamento Aproximado para Sistemas de Codificação de Vídeo Energeticamente Eficientes</t>
   </si>
   <si>
+    <t>Projeto de Sistemas em Chip Heterogêneos para Codificação de Vídeos 2D/3D com Gerenciamento Dinâmico de Energia</t>
+  </si>
+  <si>
     <t>Algorithms and Architectures for Light Fields Coding</t>
   </si>
   <si>
-    <t>Projeto de Sistemas em Chip Heterogêneos para Codificação de Vídeos 2D/3D com Gerenciamento Dinâmico de Energia</t>
-  </si>
-  <si>
-    <t>Métodos, Técnicas e Algoritmos Dedicados ao Projeto de Circuitos Integrados Digitais</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unidade Embrapii InovaAgro UFPel: Tecnologias para a Agricultura e Agroindústria </t>
   </si>
   <si>
@@ -385,24 +376,18 @@
     <t>https://institucional.ufpel.edu.br/projetos/id/u3468</t>
   </si>
   <si>
+    <t>Ao longo dos últimos anos observou-se a popularização de dispositivos móveis capazes de capturar, processar, codificar e exibir vídeos 2D e 3D. Apesar dos grandes avanços ao longo da última década, o projeto de dispositivos móveis enfrenta grandes desafios relacionados ao consumo energético dada a lenta evolução das baterias. Dessa forma, embora sejam capazes de prover compatibilidade com padrões avançados de codificação de vídeo (como o HEVC e o VP9), os dispositivos móveis atuais são incapazes de implementar integralmente as técnicas mais eficientes de codificação de vídeo disponíveis no mercado (ou seja, os padrões têm suas ferramentas parcialmente implementadas) devido a seu alto custo computacional e decorrente alto consumo energético. Como resultado, os vídeos são codificados de forma ineficiente (utilizando com maior volume de dados) levando a um em maior ônus de armazenamento e transmissão. Com o cenário descrito, ficam expostos dois desafios tecnológicos chave para garantir o crescimento do compartilhamento de vídeos em redes móveis: (i) redução do volume de dados necessários para representar vídeos: desafio enfrentado por meio da evolução de padrões de codificação; e (ii) redução do consumo energético para codificação de vídeo em dispositivos móveis: desafio que tem sido enfrentado através do uso de aceleradores de hardware dedicados ao custo de baixa flexibilidade e enorme esforço de desenvolvimento para cada diferente padrão de codificação. O objetivo de projetar sistemas móveis eficientes energeticamente e capazes de suportar múltiplos padrões de codificação de vídeo com altas taxas de compressão esbarra no elevado esforço computacional demandado por estes padrões. Este projeto de pesquisa visa propor soluções para codificação de vídeos em sistemas móveis capazes de prover eficiência energética, eficiência de codificação e flexibilidade para suporte de múltiplos padrões de codificação 2D e 3D. Será abordada a etapa de projeto de SoCs heterogêneos dispondo de CPUs, GPUs, DSPs, e unidades reconfiguráveis FPGA para mapeamento dinâmico de aceleradores de hardware. Nesta etapa serão utilizadas ferramentas de modelagem e simulação de alto nível que irão se utilizar de dados extraídos de caracterização energética/desempenho de cada unidade funcional e sua respectiva interface com a memória. Será dada atenção especial à hierarquia de memória incluindo a avaliação de notas tecnologias e interfaces de memória. Este projeto visa ainda abordar questões de gerenciamento dinâmico de energia levando em consideração o balanço com a eficiência de codificação. Para tal, serão exploradas características do comportamento dos padrões de codificação de vídeos, estado do sistema e característica dos vídeos sendo codificados. Assim, o SoC deverá adaptar-se em tempo de execução para encontrar pontos de operação que reduzam o consumo energético mantendo altas taxas de compressão e respeitando o estado do sistema (como nível da bateria).</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u2140</t>
+  </si>
+  <si>
     <t>This Project aims to develop algorithms and dedicated hardware architectures for light-fields coding. Novel coding algorithms will be proposed targeting prediction step and residual coding step within the light field codec considering the impact in terms of complexity and memory pressure. Based on the proposed algorithms, novel hardware architectures will be designed including the processing units and memory hierarchies. When considering the technical perspective, developing systems able to encode or decode light fields brings a set of challenges. At the one hand, there is the huge amount of data associated to light fields and the need for efficient coding algorithms. At the other hand, it is necessary to develop high throughput systems able to process light fields at real time whereas respecting processing, memory and energy constraints. Novel algorithms will be proposed targeting high coding efficiency whereas considering computation, memory traffic and energy consumption aspects. Dedicated hardware architectures will be developed, including processing units and memory hierarchy, to implement the proposed algorithm and applying low-power design techniques. The architectures will be described using VHDL, validates, synthesized for ASIC and characterized considering distinct energy operation points The project coordinator presents extensive experience in the field of research and has coauthored one book (published my international press) and dozens scientific papers publish in premier conferences and journals. The execution of this project will lead to increased visibility for the masters and PhD programs of the Programa de Pós-Graduação em Computação at UFPel. This project promotes interaction between local researchers and students but also strengthen relations with other Brazilian and international universities.</t>
   </si>
   <si>
     <t>https://institucional.ufpel.edu.br/projetos/id/u2137</t>
   </si>
   <si>
-    <t>Ao longo dos últimos anos observou-se a popularização de dispositivos móveis capazes de capturar, processar, codificar e exibir vídeos 2D e 3D. Apesar dos grandes avanços ao longo da última década, o projeto de dispositivos móveis enfrenta grandes desafios relacionados ao consumo energético dada a lenta evolução das baterias. Dessa forma, embora sejam capazes de prover compatibilidade com padrões avançados de codificação de vídeo (como o HEVC e o VP9), os dispositivos móveis atuais são incapazes de implementar integralmente as técnicas mais eficientes de codificação de vídeo disponíveis no mercado (ou seja, os padrões têm suas ferramentas parcialmente implementadas) devido a seu alto custo computacional e decorrente alto consumo energético. Como resultado, os vídeos são codificados de forma ineficiente (utilizando com maior volume de dados) levando a um em maior ônus de armazenamento e transmissão. Com o cenário descrito, ficam expostos dois desafios tecnológicos chave para garantir o crescimento do compartilhamento de vídeos em redes móveis: (i) redução do volume de dados necessários para representar vídeos: desafio enfrentado por meio da evolução de padrões de codificação; e (ii) redução do consumo energético para codificação de vídeo em dispositivos móveis: desafio que tem sido enfrentado através do uso de aceleradores de hardware dedicados ao custo de baixa flexibilidade e enorme esforço de desenvolvimento para cada diferente padrão de codificação. O objetivo de projetar sistemas móveis eficientes energeticamente e capazes de suportar múltiplos padrões de codificação de vídeo com altas taxas de compressão esbarra no elevado esforço computacional demandado por estes padrões. Este projeto de pesquisa visa propor soluções para codificação de vídeos em sistemas móveis capazes de prover eficiência energética, eficiência de codificação e flexibilidade para suporte de múltiplos padrões de codificação 2D e 3D. Será abordada a etapa de projeto de SoCs heterogêneos dispondo de CPUs, GPUs, DSPs, e unidades reconfiguráveis FPGA para mapeamento dinâmico de aceleradores de hardware. Nesta etapa serão utilizadas ferramentas de modelagem e simulação de alto nível que irão se utilizar de dados extraídos de caracterização energética/desempenho de cada unidade funcional e sua respectiva interface com a memória. Será dada atenção especial à hierarquia de memória incluindo a avaliação de notas tecnologias e interfaces de memória. Este projeto visa ainda abordar questões de gerenciamento dinâmico de energia levando em consideração o balanço com a eficiência de codificação. Para tal, serão exploradas características do comportamento dos padrões de codificação de vídeos, estado do sistema e característica dos vídeos sendo codificados. Assim, o SoC deverá adaptar-se em tempo de execução para encontrar pontos de operação que reduzam o consumo energético mantendo altas taxas de compressão e respeitando o estado do sistema (como nível da bateria).</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u2140</t>
-  </si>
-  <si>
-    <t>Este projeto de pesquisa tem por foco a otimização de projetos de circuitos integrados digitais em termos de área de silício, desempenho e consumo de energia através do desenvolvimento de métodos, técnicas e algoritmos dedicados ao projeto de circuitos integrados que priorizem as etapas de geração de redes de transistores tanto no nível topológico (síntese lógica) quanto no nível de leiaute.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/p10048</t>
-  </si>
-  <si>
     <t>Este projeto para criação de unidade Embrapii InovaAgro na Universidade Federal de Pelotas concentra-se na área de competência em agricultura, processos agroindustriais e tecnologias de alimentos propondo ações para que o Grupo de Pesquisa que compõe o projeto desenvolva as suas atividades de P,D&amp;I com foco na Sublinha 1: Soluções inovadoras para a produção agrícola e para os processos agroindustriais e de alimentos. O plano de ação é sendo proposto pelo grupo de pesquisadores da Universidade Federal de Pelotas com atuação contínua em projetos de P,D&amp;I para aplicações de empresas industriais associadas à Agricultura, Agroindústria e Alimentos. Nesta unidade empregaremos nossas expertises para o desenvolvimento de Tecnologias para a Agricultura e Agroindústria com as seguintes competências: 1. Tecnologias para proteção de cultivos: Métodos de controle de plantas daninhas, pragas e doenças, incluindo ferramentas de RNAi; Sistema para aplicação de defensivos; e desenvolvimento de novas formulações de defensivos; 2. Biotecnologia vegetal aplicada a produção de cultivos: Métodos de diagnóstico e sensores para a detecção de estresses bióticos e abióticos em plantas; Produtos para a mitigação de estresses bióticos e abióticos em plantas; Estimuladores e reguladores de crescimento de plantas; desenvolvimento de fertilizantes inteligentes; desenvolvimento de bioinsumos para a nutrição de plantas; tecnologias de produção, qualidade e armazenamento de sementes; e desenvolvimento de produtos inovadores usando ferramentas de biotecnologia, incluindo edição de genes. 3. Máquinas agrícolas e irrigação: desenvolvimento de máquinas e equipamentos; desenvolvimento de tratores autônomos para uso na agricultura; sistemas inteligentes para controle de irrigação; tecnologias de pós-colheita e industrialização de alimentos: métodos inteligentes de armazenamento, controle de contaminantes e descontaminação de grãos e derivados, desenvolvimento de embalagens sustentáveis e inteligentes e nanomateriais para aplicação na indústria de alimentos; bioadesivos e gomas para aplicação alimentícia; novos produtos a partir de resíduos agroindustriais; compostos bioativos aplicados a agroindústria; desenvolvimento de processos inovadores de aplicação industrial; e desenvolvimento de processos de produção de proteínas alternativas (verdes) e peptídeos bioativos.</t>
   </si>
   <si>
@@ -607,72 +592,66 @@
     <t>https://institucional.ufpel.edu.br/projetos/id/u5538</t>
   </si>
   <si>
+    <t>Os esportes radicais ou de aventura possuem características singulares que os diferenciam dos demais esportes. Após as primeiras competições em paredes de escalada indoor nos anos 80 o esporte evoluiu consideravelmente e em 2016, o Comitê Olímpico Internacional (COI) definiu a entrada de três modalidades classificadas como esportes radicais ou de aventura para os Jogos Olímpicos de Tóquio, o skate, o surfe, e a escalada. Neste sentido, este projeto de extensão tem como objetivo desenvolver atividades esportivas relacionadas ao treinamento das técnicas da escalada e atividades de conservação e conscientização ambiental relacionadas a cultura da escalada e do montanhismo para a comunidade da região de pelotas. Além disso, o projeto de extensão pretende aproximar a comunidade acadêmica das atividades de escalada e montanhismo em todos seus aspectos, desde a complexidade das técnicas que envolvem este novo esporte olímpico até os aspectos a educação ambiental.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u5592</t>
+  </si>
+  <si>
+    <t>O projeto trata de conjunto de ações integradas de combate ao COVID_19, articulando as seguintes ações: 1. GEGRADI (Grupo de Estudos para o Ensino e Aprendizagem de Gráfica Digital da FAUrb) -- Fabricação digital de protetores faciais para profissionais da saúde. 2. Maquetaria da FAUrb – Apoio à fabricação digital de protetores faciais para profissionais da saúde. 3. Engenharia de Sistemas Ciberfísicos do CDTEC – Modelagem e fabricação digital de equipamento para profissionais de saúde. 4. Suldesign Estúdio do CEARTE – Modelagem digital de protetores para profissionais de saúde. 5. PET Artes Visuais (Programa de Educação Tutorial em Artes Visuais do CEARTE) – Fabricação digital de protetores para profissionais de saúde. 6. Maquetaria do CAU UCPel - Fabricação digital de protetores para profissionais da saúde. 7. LIG FAUrb (Laboratório de Informática da Graduação) – Apoio computadorizado à fabricação digital. 8. LABIAU (Laboratório de Informática em Arquitetura e Urbanismo) – Apoio em informática e elaboração do site do programa. 9. LABURB (Laboratório de Urbanismo) – Mapeamento de trechos de concentração de pessoas em entorno de unidades de saúde. 10. GECON (Grupo de Estudos em Gestão da Construção) – Diretrizes para o comissionamento de instalações hospitalares de tratamento às vítimas da COVID-19. 11. LABCOM (Laboratório de Estudos Comportamentais) – Mapeamento da situação de vulnerabilidade dos refugiados no RS frente a pandemia do COVID-19. 12. NAURB (Núcleo de Pesquisa em Arquitetura e Urbanismo) – Mapeamento de áreas de fragilidade socioespacial de baixa renda em Pelotas, RS. 13. LABCEE (Laboratório de Conforto e Eficiência Energética) – Elaboração de orientações com relação à ventilação natural dos ambientes, para fins de higienização do ar, em diferentes condições climáticas. 14. LINSE (Laboratório de Inspeção de Edificações em Eficiência Energética) – Medidas para conservação de energia em período de isolamento social e cuidados práticos para manter a higienização dos ambientes. 15. PET FAUrb (Programa de Educação Tutorial da FAUrb) – Apoio à prototipagem de equipamentos de proteção para profissionais de saúde 16. Revista Projectare – Edição especial sobre resiliência em arquitetura e urbanismo. 17. Scketchers Urbanos – Desenhos para a educação ambiental-urbana frente ao COVID-19. 18. Fundamentos para um projeto de unidade de suporte ao isolamento voluntário: contribuições para a construção de uma estratégia complementar de enfrentamento da covid19 na periferia de Pelotas. 19. Oficina online de criação de personagens e narrativas.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u3681</t>
+  </si>
+  <si>
+    <t>A Inteligência Artificial (IA) é uma área da Computação que estuda a mecanização de processos cognitivos por meio de algoritmos. Um dos focos da IA é a automação destes processos, almejando a substituição ou facilitação de tarefas cognitivas humanas por computadores. Avanços recentes têm levado a um amplo interesse no desenvolvimento e aplicação de técnicas de IA, bem como no estudo do impacto destas aplicações na sociedade, principalmente em países desenvolvidos. O Brasil observa poucas iniciativas neste sentido e estudos demonstram que a falta de investimentos pode levar a perdas na competitividade e aumento na desigualdade econômica. Por outro lado, várias Universidades no país possuem competência em IA, mesmo que com pouca interação com outras partes da sociedade. Assim, este projeto visa estabelecer o Centro de Inovação em Inteligência Artificial e ações para potencializar o direcionamento de competências desenvolvidas dentro da Universidade Federal de Pelotas nesta área para a sociedade em geral e, em particular, para empresas da região, visando preparar a região para o uso e as consequências do uso de IA.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u1838</t>
+  </si>
+  <si>
+    <t>Este projeto trata da continuidade do vínculo da Universidade com a Empresa Júnior dos cursos de Ciência da Computação e Engenharia de Computação, anteriormente caracterizado como Projeto de Ensino. Empresas Junior são associações civis sem fins lucrativos que visam fornecer a alunos de graduação a oportunidade de participar do processo organizacional, decisório e executivo de uma empresa, incentivando o empreendedorismo e auxiliando a comunidade a partir da prestação de serviços especializados. Uma Empresa Junior é um instrumento pedagógico importante dentro de cursos de graduação ao permitir que os envolvidos apliquem de forma prática conhecimentos adquiridos durante o curso em favor da comunidade, desenvolvendo aspectos pessoais e profissionais dos alunos envolvidos. O Brasil hoje conta com o maior número de Empresas Juniores no mundo. A Empresa Junior da Computação é uma associação de alunos dos cursos de Ciência da Computação e Engenharia de Computação, ambos lotados no Centro de Desenvolvimento Tecnológico (CDTec), com a colaboração de docentes da Universidade. Este projeto visa dar manutenção ao vínculo desta associação à Universidade Federal de Pelotas, reconhecendo a empresa como instrumento pedagógico e extensionista, em linha com os objetivos estabelecidos nos respectivos Projetos Político-Pedagógicos dos Cursos.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u1430</t>
+  </si>
+  <si>
+    <t>Participar do letramento ciêntífico de crianças e adolescentes durante a educação básica conduz a reflexâo crítica sobre o papel da ciência e tecnologia no dia-dia, contribuindo também ao estimular a curiosidade ciêntifica. Alicerçando o processo ensino aprendizagem significativo, reforçar as bases para a uma formação cidadã trará reflexos no desenvolvimento ciêntifico-tecnológico, econômico e social da região. Da mesma forma, a aproximação academia-comunidade, juntamente com a transposição e construção de novos conhecimentos (mutuamente articulados) aplia a visão de mundo bem como de sua complexidade, contribuindo para aquisição de novas habilidades e competências aos profissionais em formação, e simultaneamente agrega identidade e pertencimento ao Curso de Bacharelado em Biotecnologia do CDTec. A partir de necessidades geradas ao longo desafiador processo iniciado com o ensino remoto emergencial, a proposta engloba uma releitura de dois projetos adaptando à nova realidade metodoloias combinadas de ensino, pesquisa e extensão agora através de atividades não presenciais. Ainda que o foco sejam alunos de escolas públicas pretende-se também atingir estudantes de escolas particulares da região. A fim de implementar as atividades serão utilizadas redes sociais on line e a plataforma google, articulando os colaboradores e organizadores no espaço e-projetos da UFPel. O projeto também constiuirá um espaço disponível para ações de integralização da extensão no curso de bacharelado em Biotecnologia.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u4198</t>
+  </si>
+  <si>
+    <t>Espaço destinado a acolher grupos de música da cidade de Pelotas e Região pertencentes a Universidade Federal de Pelotas, devidamente protocolados na Pró-Reitoria de Extensão e Cultura, e da Azonasul, bem como vinculados e/ou indicados pela Secretaria Municipal de Cultura. Com sede no galpão N. X da Estação Férrea de Pelotas, de responsabilidade da empresa Guanabara S/A, o Projeto Casa de Música da Cidade define-se como equipamento cultural destinado a formação de profissionais e de público à música, seja de caráter erudito e/ou popular</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u5104</t>
+  </si>
+  <si>
+    <t>As atividades de ensino e pesquisa realizadas na área de Robótica Móvel na UFPel envolvem conhecimentos aplicáveis no desenvolvimento de robôs de serviço com funcionalidades de navegação, mapeamento de um ambiente conhecido ou desconhecido, reconhecimento e rastreamento de pessoas, reconhecimento de objetos, manipulação de objetos, reconhecimento de fala, reconhecimento de gestos, cognição para entender as situações do mundo real. Este projeto pretende aplicar os conhecimentos mencionados no emprego destas funcionalidades nos veículos elétricos produzidos pela empresa parceira. Pretende-se também compor uma equipe que se capacite para construir um robô para participar da Competição Brasileira de Robótica e da ROBOCUP mundial na liga @home, onde robôs de serviço de uso geral domésticos são construídos e testados por meio de uma competição.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u860</t>
+  </si>
+  <si>
+    <t>O Projeto de Recuperação de Área Degradada (PRAD) é um estudo ambiental que contém programas e ações que permitem minimizar o impacto ambiental causado por uma determinada atividade ou empreendimento. Normalmente este estudo é solicitado por órgãos ambientais como parte integrante do processo de licenciamento. Preconiza-se que o PRAD proponha métodos e técnicas a serem empregados de acordo com as peculiaridades de cada área e do dano observado. O reurbanismo colaborativo participativo, permite a participação da população na tomada de decisão, estimulando o uso da mesma e o sentimento de pertencimento, uma vez que são atores de transformação. Esta prática é empregada na execução de planos de recuperação de áreas degradadas. O PRAD do Campus Anglo, condicionante da licença ambiental de operação de regularização, foi aprovado pelo órgão de controle municipal, sendo a próxima etapa a execução deste. Dentre os usos futuros da área, uma parcela será destinada à parque urbano, para uso da população residente e da comunidade universitária, como forma de remediar o impacto causado as comunidades. proporcionando um espaço seguro de convívio e lazer. Com isto, o objetivo principal deste projeto é implementar a reurbanização colaborativa da parcela do PRAD destinada ao parque urbano, com o intuito de estabelecer o que será implementado na área, de acordo com as percepções e anseios dos futuros usuários, diante das possibilidades técnicas pertinentes ao local, avaliadas e estabelecidas pelo corpo técnico do Núcleo de Planejamento Ambiental setor da Comissão de Desenvolvimento do Plano Diretor da UFPel. Para tanto, um Diagnóstico Rápido Urbano Participativo (DRUP) será o método de trabalho para dar início aos processos participativos de propostas de reurbanização da parcela da área do PRAD destinada ao parque urbano. Com isto, a partir do compromisso da UFPel em recuperar a área, pretende-se com o reurbanismo colaborativo o envolvimento popular, desenvolvido por meio de oficinas e levantamentos de dados, capazes de gerar identidade e apropriação da parcela destinada ao parque urbano, com ações de renovação espacial que estimulem a vivência e valorização espacial da área, proporcionando um ambiente de qualidade, segurança e lazer para a população residente e a comunidade universitária, o que difere do cenário atual da área.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u5708</t>
+  </si>
+  <si>
+    <t>A UNATI-UFPel surge como forma de oportunizar à população idosa pelotense um espaço não somente educacional mas também social e cultural. Acredita-se na inclusão da pessoa idosa dentro do espaço universitário, na busca do conhecimento e da sua formação continuada, proporcionando além de melhor inserção no mercado de trabalho, a troca de experiência entre gerações. A proposta geral deste espaço é oferecer diversas atividades a comunidade idosa do município. Serão ofertadas disciplinas em diferentes áreas de conhecimento, assim como, oficinas, tendo o cuidado na escolha de uma metodologia específica e direcionada a pessoa idosa. Acredita-se que a implementação da UNATI-UFPel trará benefícios importantes e permitirá transformações biopsicossociais que possibilitarão ao idoso ter um olhar diferenciado do processo de envelhecimento. Os benefícios desta proposta não se relacionam somente aos idosos, mas aos discentes, profissionais/docentes e também a própria UFPel enquanto instituição de ensino que exercerá seu protagonismo neste cenário em consonância com as atuais políticas direcionadas à população idosa.</t>
+  </si>
+  <si>
+    <t>https://institucional.ufpel.edu.br/projetos/id/u692</t>
+  </si>
+  <si>
     <t>O presente projeto visa apresentar e indicar as diretrizes e etapas para implementação do "Centro Cultural Estação Ferroviária" de Pelotas, Rio Grande do Sul. O principal objetivo do centro é gerenciar, promover e pesquisar sobre a memória e a história dos sujeitos envolvidos com o transporte e a mobilidade urbana da cidade. Gerenciar significa reunir um acervo material (objetos, documentos, fotografias, mapas, entre outros) e imaterial (entrevistas com trabalhadores da estação e de outras formas de transporte, os usuários e moradores do entorno da estação) para alimentar não apenas um memorial dedicado aos trabalhadores e usuários do transporte urbano, mas um centro cultural destinado a produzir e divulgar conhecimento a partir desses vestígios. A promoção não deve ser limitada a produção e exposição de um memorial dos transportes e das formas de mobilidade urbana. Promoção envolve educação. Por essa razão a proposta tem como previsão a implantação de um centro cultural, e não apenas o memorial. A partir do memorial é possível planejar atividades educativas em parceria com escolas municipais e estaduais, das redes públicas e privadas, e com a Secretaria Municipal dos Transportes e Trânsito do município. Entender a historicidade dessas mudanças, como elas afetaram a vida na cidade, faz parte das atividades de um centro cultural destinado a pensar a importância da mobilidade urbana para a região. O centro cultural objetiva não apenas apresentar aspectos relacionadas ao papel social e econômico dos transportes na região, mas alcançar as sociabilidades, sensibilidades, percepções e imaginários em torno da mobilidade urbana. Por isso planejar atividades educacionais que articulem educação, transportes e planejamento urbano é um dos grandes objetivos do centro. As atividades de pesquisa estão relacionadas com a gerência do acervo e com sua promoção. Museus, arquivos, memoriais, bibliotecas não devem ser encarados como depósito de objetos, mas como instituições que guardam, conservam, estudam seu acervo, para proporcionar resultados para a comunidade em que estão inseridos. Como centro cultural, articular as atividades de gerenciamento, promoção e pesquisa é fundamental. Tendo como meta alcançar esses três eixos (gerenciar, promover e pesquisar), a implantação do "Centro Cultural Estação Ferroviária" pode atuar na democratização de um acervo da história da mobilidade urbana local. O projeto propõem, portanto, um centro cultural que transcenda a ferrovia, buscando construir um local de referência sobre transportes e mobilidade urbana no município. Formar esse centro no prédio da estação é fundamental, pois a instalação das estradas de ferro no Rio Grande do Sul, processo que ocorreu, de forma geral, entre as décadas finais do século XIX e início do século XX, assinalou transformações urbanas significativas que afetaram a própria configuração espacial das cidades em que os trilhos foram instalados. A estação férrea é entendida, portanto, como um momento único para os transportes na região e para o desenvolvimento urbano pelotense.</t>
   </si>
   <si>
     <t>https://institucional.ufpel.edu.br/projetos/id/u1929</t>
   </si>
   <si>
-    <t>O projeto, efetivado a partir do NELU, Núcleo de Editora e Livraria da UFPel, vinculado ao Gabinete do Vice-Reitor, tem a intenção de servir como laboratório para que os alunos de graduação (especialmente dos cursos de Design e Ciências da Computação, mas abrangendo também outros cursos que possam vir a se tornar parceiros, como os de Turismo e Administração, por exemplo, em ações futuramente empreendidas) possam atuar na produção, divulgação e comunicação de livros produzidos e editados pela Editora Universitária da UFPel e comercializados por nossa livraria, além de produtos pensados para a divulgação da marca Linha UFPel. A partir da produção e divulgação de livros, tem-se a possibilidade de articular o ensino (com a atuação de alunos estagiários, bolsistas e voluntários que atuem na diagramação de obras editadas pela UFPel e que criem, implementem e mantenham em funcionamento o site da editora e livraria UFPel), disponibilizando obras de autores da instituição e também de universidades parceiras através do convênio com a ABEU (Associação Brasileira de Editoras Universitárias), bem como sistematizando as pesquisas de nossos professores e alunos em obras que sirvam como referências em suas áreas de atuação.. A intenção do convênio é disseminar o conhecimento, disponibilizando a custos menores diversas obras produzidas em outras instituições conveniadas. A partir da criação de uma linha de produtos com a marca UFPel, os alunos também atuam como projetistas e executores de artefatos que divulgam a marca da Universidade, possibilitando um maior engajamento da comunidade tanto no âmbito interno (a partir de seus cerca de 23.500 alunos e servidores) quanto externos (caracterizados como os familiares de nossos membros, inclusive de fora da cidade, bem como da sociedade pelotense como um todo). A intenção é fazer com que a partir da linha de produtos, seja possível comunicar os valores, a atuação e a abrangência da instituição, que em 2019 completa 50 anos. Com isso, a representação da UFPel em eventos, reuniões, encontros interinstitucionais (inclusive em âmbito internacional) se dará de maneira mais efetiva, nos moldes do que tem sido visto na maioria das universidades públicas do Brasil. A iniciativa prevê uma maior inserção e representação de nossa Universidade em meio às demais instituições de nível superior do Brasil e fora dele. Com isso, articula-se um grande laboratório de formação contínua de alunos de diversos cursos, atuando como diagramadores e arte-finalistas (no projeto, editoração e finalização de obras literárias e também de produtos a serem desenvolvidos para a Linha UFPel), implementando e mantendo sistemas (na criação e manutenção dos sites da Editora, da Livraria e da Linha de Produtos) e, em um futuro próximo provavelmente implementando rotinas administrativas para o fluxo de vendas dos produtos idealizados, produzidos e disponibilizados a partir de nossa estrutura. As ações de extensão e ensino específicas para cada etapa serão apresentadas a seguir.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u1401</t>
-  </si>
-  <si>
-    <t>Os esportes radicais ou de aventura possuem características singulares que os diferenciam dos demais esportes. Após as primeiras competições em paredes de escalada indoor nos anos 80 o esporte evoluiu consideravelmente e em 2016, o Comitê Olímpico Internacional (COI) definiu a entrada de três modalidades classificadas como esportes radicais ou de aventura para os Jogos Olímpicos de Tóquio, o skate, o surfe, e a escalada. Neste sentido, este projeto de extensão tem como objetivo desenvolver atividades esportivas relacionadas ao treinamento das técnicas da escalada e atividades de conservação e conscientização ambiental relacionadas a cultura da escalada e do montanhismo para a comunidade da região de pelotas. Além disso, o projeto de extensão pretende aproximar a comunidade acadêmica das atividades de escalada e montanhismo em todos seus aspectos, desde a complexidade das técnicas que envolvem este novo esporte olímpico até os aspectos a educação ambiental.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u5592</t>
-  </si>
-  <si>
-    <t>O projeto trata de conjunto de ações integradas de combate ao COVID_19, articulando as seguintes ações: 1. GEGRADI (Grupo de Estudos para o Ensino e Aprendizagem de Gráfica Digital da FAUrb) -- Fabricação digital de protetores faciais para profissionais da saúde. 2. Maquetaria da FAUrb – Apoio à fabricação digital de protetores faciais para profissionais da saúde. 3. Engenharia de Sistemas Ciberfísicos do CDTEC – Modelagem e fabricação digital de equipamento para profissionais de saúde. 4. Suldesign Estúdio do CEARTE – Modelagem digital de protetores para profissionais de saúde. 5. PET Artes Visuais (Programa de Educação Tutorial em Artes Visuais do CEARTE) – Fabricação digital de protetores para profissionais de saúde. 6. Maquetaria do CAU UCPel - Fabricação digital de protetores para profissionais da saúde. 7. LIG FAUrb (Laboratório de Informática da Graduação) – Apoio computadorizado à fabricação digital. 8. LABIAU (Laboratório de Informática em Arquitetura e Urbanismo) – Apoio em informática e elaboração do site do programa. 9. LABURB (Laboratório de Urbanismo) – Mapeamento de trechos de concentração de pessoas em entorno de unidades de saúde. 10. GECON (Grupo de Estudos em Gestão da Construção) – Diretrizes para o comissionamento de instalações hospitalares de tratamento às vítimas da COVID-19. 11. LABCOM (Laboratório de Estudos Comportamentais) – Mapeamento da situação de vulnerabilidade dos refugiados no RS frente a pandemia do COVID-19. 12. NAURB (Núcleo de Pesquisa em Arquitetura e Urbanismo) – Mapeamento de áreas de fragilidade socioespacial de baixa renda em Pelotas, RS. 13. LABCEE (Laboratório de Conforto e Eficiência Energética) – Elaboração de orientações com relação à ventilação natural dos ambientes, para fins de higienização do ar, em diferentes condições climáticas. 14. LINSE (Laboratório de Inspeção de Edificações em Eficiência Energética) – Medidas para conservação de energia em período de isolamento social e cuidados práticos para manter a higienização dos ambientes. 15. PET FAUrb (Programa de Educação Tutorial da FAUrb) – Apoio à prototipagem de equipamentos de proteção para profissionais de saúde 16. Revista Projectare – Edição especial sobre resiliência em arquitetura e urbanismo. 17. Scketchers Urbanos – Desenhos para a educação ambiental-urbana frente ao COVID-19. 18. Fundamentos para um projeto de unidade de suporte ao isolamento voluntário: contribuições para a construção de uma estratégia complementar de enfrentamento da covid19 na periferia de Pelotas. 19. Oficina online de criação de personagens e narrativas.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u3681</t>
-  </si>
-  <si>
-    <t>A Inteligência Artificial (IA) é uma área da Computação que estuda a mecanização de processos cognitivos por meio de algoritmos. Um dos focos da IA é a automação destes processos, almejando a substituição ou facilitação de tarefas cognitivas humanas por computadores. Avanços recentes têm levado a um amplo interesse no desenvolvimento e aplicação de técnicas de IA, bem como no estudo do impacto destas aplicações na sociedade, principalmente em países desenvolvidos. O Brasil observa poucas iniciativas neste sentido e estudos demonstram que a falta de investimentos pode levar a perdas na competitividade e aumento na desigualdade econômica. Por outro lado, várias Universidades no país possuem competência em IA, mesmo que com pouca interação com outras partes da sociedade. Assim, este projeto visa estabelecer o Centro de Inovação em Inteligência Artificial e ações para potencializar o direcionamento de competências desenvolvidas dentro da Universidade Federal de Pelotas nesta área para a sociedade em geral e, em particular, para empresas da região, visando preparar a região para o uso e as consequências do uso de IA.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u1838</t>
-  </si>
-  <si>
-    <t>Este projeto trata da continuidade do vínculo da Universidade com a Empresa Júnior dos cursos de Ciência da Computação e Engenharia de Computação, anteriormente caracterizado como Projeto de Ensino. Empresas Junior são associações civis sem fins lucrativos que visam fornecer a alunos de graduação a oportunidade de participar do processo organizacional, decisório e executivo de uma empresa, incentivando o empreendedorismo e auxiliando a comunidade a partir da prestação de serviços especializados. Uma Empresa Junior é um instrumento pedagógico importante dentro de cursos de graduação ao permitir que os envolvidos apliquem de forma prática conhecimentos adquiridos durante o curso em favor da comunidade, desenvolvendo aspectos pessoais e profissionais dos alunos envolvidos. O Brasil hoje conta com o maior número de Empresas Juniores no mundo. A Empresa Junior da Computação é uma associação de alunos dos cursos de Ciência da Computação e Engenharia de Computação, ambos lotados no Centro de Desenvolvimento Tecnológico (CDTec), com a colaboração de docentes da Universidade. Este projeto visa dar manutenção ao vínculo desta associação à Universidade Federal de Pelotas, reconhecendo a empresa como instrumento pedagógico e extensionista, em linha com os objetivos estabelecidos nos respectivos Projetos Político-Pedagógicos dos Cursos.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u1430</t>
-  </si>
-  <si>
-    <t>Participar do letramento ciêntífico de crianças e adolescentes durante a educação básica conduz a reflexâo crítica sobre o papel da ciência e tecnologia no dia-dia, contribuindo também ao estimular a curiosidade ciêntifica. Alicerçando o processo ensino aprendizagem significativo, reforçar as bases para a uma formação cidadã trará reflexos no desenvolvimento ciêntifico-tecnológico, econômico e social da região. Da mesma forma, a aproximação academia-comunidade, juntamente com a transposição e construção de novos conhecimentos (mutuamente articulados) aplia a visão de mundo bem como de sua complexidade, contribuindo para aquisição de novas habilidades e competências aos profissionais em formação, e simultaneamente agrega identidade e pertencimento ao Curso de Bacharelado em Biotecnologia do CDTec. A partir de necessidades geradas ao longo desafiador processo iniciado com o ensino remoto emergencial, a proposta engloba uma releitura de dois projetos adaptando à nova realidade metodoloias combinadas de ensino, pesquisa e extensão agora através de atividades não presenciais. Ainda que o foco sejam alunos de escolas públicas pretende-se também atingir estudantes de escolas particulares da região. A fim de implementar as atividades serão utilizadas redes sociais on line e a plataforma google, articulando os colaboradores e organizadores no espaço e-projetos da UFPel. O projeto também constiuirá um espaço disponível para ações de integralização da extensão no curso de bacharelado em Biotecnologia.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u4198</t>
-  </si>
-  <si>
-    <t>Espaço destinado a acolher grupos de música da cidade de Pelotas e Região pertencentes a Universidade Federal de Pelotas, devidamente protocolados na Pró-Reitoria de Extensão e Cultura, e da Azonasul, bem como vinculados e/ou indicados pela Secretaria Municipal de Cultura. Com sede no galpão N. X da Estação Férrea de Pelotas, de responsabilidade da empresa Guanabara S/A, o Projeto Casa de Música da Cidade define-se como equipamento cultural destinado a formação de profissionais e de público à música, seja de caráter erudito e/ou popular</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u5104</t>
-  </si>
-  <si>
-    <t>As atividades de ensino e pesquisa realizadas na área de Robótica Móvel na UFPel envolvem conhecimentos aplicáveis no desenvolvimento de robôs de serviço com funcionalidades de navegação, mapeamento de um ambiente conhecido ou desconhecido, reconhecimento e rastreamento de pessoas, reconhecimento de objetos, manipulação de objetos, reconhecimento de fala, reconhecimento de gestos, cognição para entender as situações do mundo real. Este projeto pretende aplicar os conhecimentos mencionados no emprego destas funcionalidades nos veículos elétricos produzidos pela empresa parceira. Pretende-se também compor uma equipe que se capacite para construir um robô para participar da Competição Brasileira de Robótica e da ROBOCUP mundial na liga @home, onde robôs de serviço de uso geral domésticos são construídos e testados por meio de uma competição.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u860</t>
-  </si>
-  <si>
-    <t>O Projeto de Recuperação de Área Degradada (PRAD) é um estudo ambiental que contém programas e ações que permitem minimizar o impacto ambiental causado por uma determinada atividade ou empreendimento. Normalmente este estudo é solicitado por órgãos ambientais como parte integrante do processo de licenciamento. Preconiza-se que o PRAD proponha métodos e técnicas a serem empregados de acordo com as peculiaridades de cada área e do dano observado. O reurbanismo colaborativo participativo, permite a participação da população na tomada de decisão, estimulando o uso da mesma e o sentimento de pertencimento, uma vez que são atores de transformação. Esta prática é empregada na execução de planos de recuperação de áreas degradadas. O PRAD do Campus Anglo, condicionante da licença ambiental de operação de regularização, foi aprovado pelo órgão de controle municipal, sendo a próxima etapa a execução deste. Dentre os usos futuros da área, uma parcela será destinada à parque urbano, para uso da população residente e da comunidade universitária, como forma de remediar o impacto causado as comunidades. proporcionando um espaço seguro de convívio e lazer. Com isto, o objetivo principal deste projeto é implementar a reurbanização colaborativa da parcela do PRAD destinada ao parque urbano, com o intuito de estabelecer o que será implementado na área, de acordo com as percepções e anseios dos futuros usuários, diante das possibilidades técnicas pertinentes ao local, avaliadas e estabelecidas pelo corpo técnico do Núcleo de Planejamento Ambiental setor da Comissão de Desenvolvimento do Plano Diretor da UFPel. Para tanto, um Diagnóstico Rápido Urbano Participativo (DRUP) será o método de trabalho para dar início aos processos participativos de propostas de reurbanização da parcela da área do PRAD destinada ao parque urbano. Com isto, a partir do compromisso da UFPel em recuperar a área, pretende-se com o reurbanismo colaborativo o envolvimento popular, desenvolvido por meio de oficinas e levantamentos de dados, capazes de gerar identidade e apropriação da parcela destinada ao parque urbano, com ações de renovação espacial que estimulem a vivência e valorização espacial da área, proporcionando um ambiente de qualidade, segurança e lazer para a população residente e a comunidade universitária, o que difere do cenário atual da área.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u5708</t>
-  </si>
-  <si>
-    <t>A UNATI-UFPel surge como forma de oportunizar à população idosa pelotense um espaço não somente educacional mas também social e cultural. Acredita-se na inclusão da pessoa idosa dentro do espaço universitário, na busca do conhecimento e da sua formação continuada, proporcionando além de melhor inserção no mercado de trabalho, a troca de experiência entre gerações. A proposta geral deste espaço é oferecer diversas atividades a comunidade idosa do município. Serão ofertadas disciplinas em diferentes áreas de conhecimento, assim como, oficinas, tendo o cuidado na escolha de uma metodologia específica e direcionada a pessoa idosa. Acredita-se que a implementação da UNATI-UFPel trará benefícios importantes e permitirá transformações biopsicossociais que possibilitarão ao idoso ter um olhar diferenciado do processo de envelhecimento. Os benefícios desta proposta não se relacionam somente aos idosos, mas aos discentes, profissionais/docentes e também a própria UFPel enquanto instituição de ensino que exercerá seu protagonismo neste cenário em consonância com as atuais políticas direcionadas à população idosa.</t>
-  </si>
-  <si>
-    <t>https://institucional.ufpel.edu.br/projetos/id/u692</t>
-  </si>
-  <si>
     <t>Secretaria da Ciência da Computação:</t>
   </si>
   <si>
@@ -709,25 +688,25 @@
     <t>19 de Julho</t>
   </si>
   <si>
-    <t>21 de Julho</t>
-  </si>
-  <si>
-    <t>24 de Julho</t>
-  </si>
-  <si>
-    <t>08 de Setembro</t>
-  </si>
-  <si>
-    <t>14 de Setembro</t>
-  </si>
-  <si>
-    <t>01 de Agosto</t>
-  </si>
-  <si>
-    <t>05 de Dezembro</t>
+    <t>20 de Dezembro</t>
+  </si>
+  <si>
+    <t>21 de Dezembro</t>
+  </si>
+  <si>
+    <t>03 de Março</t>
   </si>
   <si>
     <t>10 de Dezembro</t>
+  </si>
+  <si>
+    <t>30 de Janeiro</t>
+  </si>
+  <si>
+    <t>15 de Maio</t>
+  </si>
+  <si>
+    <t>20 de Maio</t>
   </si>
 </sst>
 </file>
@@ -1146,102 +1125,102 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1251,196 +1230,187 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S3" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="R2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1434,6 @@
     <hyperlink ref="Q3" r:id="rId17"/>
     <hyperlink ref="R3" r:id="rId18"/>
     <hyperlink ref="S3" r:id="rId19"/>
-    <hyperlink ref="T3" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1485,22 +1454,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1523,22 +1492,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1561,22 +1530,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1599,12 +1568,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1632,12 +1601,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1660,12 +1629,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1688,12 +1657,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +1685,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1739,12 +1708,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +1723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,115 +1805,106 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W3" t="s">
         <v>28</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1954,13 +1914,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2036,244 +1996,211 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
         <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2283,13 +2210,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,83 +2292,80 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" t="s">
-        <v>88</v>
+      <c r="S2" t="s">
+        <v>82</v>
       </c>
       <c r="T2" t="s">
         <v>85</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" t="s">
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="T4" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="S4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,267 +2388,267 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -2734,102 +2658,67 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2728,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2852,77 +2741,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2932,22 +2821,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2957,12 +2846,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2985,92 +2884,92 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -3080,12 +2979,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3095,57 +2994,47 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3155,358 +3044,349 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3428,6 @@
     <hyperlink ref="AI3" r:id="rId35"/>
     <hyperlink ref="AJ3" r:id="rId36"/>
     <hyperlink ref="AK3" r:id="rId37"/>
-    <hyperlink ref="AL3" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3564,44 +3443,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
